--- a/src/main/resources/TestData.xlsx
+++ b/src/main/resources/TestData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\davis\IdeaProjects\buffaloCart\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\davis\IdeaProjects\buffaloCart_Main\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54994001-0DC7-4938-9BB1-19D9568A14F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9937B219-E926-4C5D-8AD7-C36C1926E9F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8880" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
   <si>
     <t>title</t>
   </si>
@@ -119,6 +119,9 @@
   </si>
   <si>
     <t>Error msg for no role found</t>
+  </si>
+  <si>
+    <t>error msg for no data found</t>
   </si>
 </sst>
 </file>
@@ -520,23 +523,32 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{477DCD7C-F44C-4131-B3B6-5062B5947624}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="27.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <col min="2" max="2" width="50.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -739,7 +751,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65835472-D1AA-4A60-90C7-0C14FB126FF1}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
